--- a/data/Affect on Social Media/affect.xlsx
+++ b/data/Affect on Social Media/affect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanropovik/Library/Mobile Documents/com~apple~CloudDocs/MANUSCRIPTS/ongoing/2021 Forecasting Collaborative project/forecastingCollaborativeAnalysis/data/Affect on Social Media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175205E9-40FC-4841-B70A-F102A7C4848B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9426D410-9618-084C-B32E-4C1065FAD59C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
